--- a/Protocol/CDC protocol.xlsx
+++ b/Protocol/CDC protocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27317"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\CDCEMU2000\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A924E5-65E6-4C25-8B52-CA4CFDC6C221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D93282A-31F7-438B-A7C2-453708243418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{B9317F5A-30F9-4036-B28F-5250725C5A70}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t>10</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>//why different bytes GP and MEX?</t>
+  </si>
+  <si>
+    <t>RS-485 4800 8E2</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
@@ -717,6 +720,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -736,9 +740,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -776,7 +780,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -882,7 +886,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1024,7 +1028,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,8 +1041,8 @@
   </sheetPr>
   <dimension ref="A4:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1176,7 +1180,9 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="95.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="7"/>
+      <c r="A11" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
